--- a/Project/Individual/z_Document/Baseball 설계도.xlsx
+++ b/Project/Individual/z_Document/Baseball 설계도.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\iOS\Project\Individual\z_Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477B3817-297D-4A75-8832-8437F76622C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4715FC5C-FD59-45B4-97CF-B93CCE06D9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39045" yWindow="1305" windowWidth="23010" windowHeight="18945" xr2:uid="{78E20A4A-B336-433F-8CF1-0006CEA6484D}"/>
+    <workbookView xWindow="49440" yWindow="1650" windowWidth="23010" windowHeight="19470" xr2:uid="{78E20A4A-B336-433F-8CF1-0006CEA6484D}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="1" r:id="rId1"/>
@@ -39,17 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>야구게임 설계도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>요건정의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -142,6 +134,38 @@
   </si>
   <si>
     <t>MsgController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnswerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MsgModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨트롤러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야구게임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InputNumberContorller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnswerModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameController</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1949,20 +1973,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501D5E5C-16CE-49BE-8583-881DDAA42D83}">
-  <dimension ref="C3:I10"/>
+  <dimension ref="C3:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:9">
       <c r="C3" s="2" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1982,20 +2006,48 @@
     </row>
     <row r="6" spans="3:9">
       <c r="C6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="3:9">
       <c r="C8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="3:9">
       <c r="C10" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="D16" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2012,7 +2064,7 @@
   <dimension ref="C2:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2022,97 +2074,97 @@
   <sheetData>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="3:3" ht="82.5">
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2133,7 +2185,7 @@
   <sheetData>
     <row r="2" spans="3:3">
       <c r="C2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2148,7 +2200,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Project/Individual/z_Document/Baseball 설계도.xlsx
+++ b/Project/Individual/z_Document/Baseball 설계도.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\iOS\Project\Individual\z_Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4715FC5C-FD59-45B4-97CF-B93CCE06D9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F6545A-3C9E-415A-BD1A-E893F886D243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49440" yWindow="1650" windowWidth="23010" windowHeight="19470" xr2:uid="{78E20A4A-B336-433F-8CF1-0006CEA6484D}"/>
+    <workbookView xWindow="47370" yWindow="450" windowWidth="23010" windowHeight="19470" xr2:uid="{78E20A4A-B336-433F-8CF1-0006CEA6484D}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>요건정의</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,39 +133,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MsgController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnswerController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MsgModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컨트롤러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모델</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>야구게임</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>InputNumberContorller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnswerModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameController</t>
+    <t>lv4~6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플로우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +179,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -221,17 +206,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -240,8 +231,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -308,6 +300,156 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B5EA2A6-F555-8793-86A4-CA6E04E8343B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="7229475"/>
+          <a:ext cx="6953250" cy="5391150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>597675</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>92850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>292875</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>26175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99568F6E-C695-8337-9863-38956AC53239}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1283475" y="12665850"/>
+          <a:ext cx="6553200" cy="3705225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>119025</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>61875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>633375</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>33300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADBE8C4B-78F3-C0F5-BE2A-2D13CA31983F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1490625" y="16406775"/>
+          <a:ext cx="6686550" cy="5000625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -376,67 +518,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="순서도: 처리 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BC1396D-8042-4A76-84AF-8E24C020534C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4152900" y="1362075"/>
-          <a:ext cx="1114425" cy="666750"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>기록 로드</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -463,59 +544,6 @@
         <a:xfrm flipH="1">
           <a:off x="6238875" y="1038225"/>
           <a:ext cx="4763" cy="1190625"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>29359</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="직선 화살표 연결선 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FA886A3-79A7-9D39-3E00-F1EFE109A0DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5372100" y="1705759"/>
-          <a:ext cx="742950" cy="8741"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1973,10 +2001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501D5E5C-16CE-49BE-8583-881DDAA42D83}">
-  <dimension ref="C3:I16"/>
+  <dimension ref="C3:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1985,69 +2013,38 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:9">
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="3:9">
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="6" spans="3:9">
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="3:9">
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="3:9">
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9">
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9">
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9">
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9">
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C10" s="2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9">
-      <c r="D16" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2055,6 +2052,11 @@
     <mergeCell ref="C3:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C6" location="요건정의!A1" display="요건정의" xr:uid="{0A1CF3C3-1817-4D48-A196-09C0754A8D66}"/>
+    <hyperlink ref="C8" location="진행예제!A1" display="진행예제" xr:uid="{318A25BA-5DD8-4662-9098-DB885454E16B}"/>
+    <hyperlink ref="C10" location="플로우!A1" display="플로우" xr:uid="{576ED415-65A8-4E4F-B53D-925C75CECF32}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2175,10 +2177,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAB1B23-E76C-4D53-93D4-793F470D403E}">
-  <dimension ref="C2"/>
+  <dimension ref="C2:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M86" sqref="M86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2186,6 +2188,11 @@
     <row r="2" spans="3:3">
       <c r="C2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2199,7 +2206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F771F98A-85E3-4F66-9A62-8CD3C3F75CA4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>

--- a/Project/Individual/z_Document/Baseball 설계도.xlsx
+++ b/Project/Individual/z_Document/Baseball 설계도.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\iOS\Project\Individual\z_Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F6545A-3C9E-415A-BD1A-E893F886D243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E50E3B-EF48-467A-A943-13ABF7234EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47370" yWindow="450" windowWidth="23010" windowHeight="19470" xr2:uid="{78E20A4A-B336-433F-8CF1-0006CEA6484D}"/>
+    <workbookView xWindow="13725" yWindow="795" windowWidth="23010" windowHeight="19470" xr2:uid="{78E20A4A-B336-433F-8CF1-0006CEA6484D}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="1" r:id="rId1"/>
     <sheet name="요건정의" sheetId="2" r:id="rId2"/>
     <sheet name="진행예제" sheetId="3" r:id="rId3"/>
     <sheet name="플로우" sheetId="4" r:id="rId4"/>
+    <sheet name="체크리스트" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>요건정의</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,12 +145,154 @@
     <t>플로우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>체크리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시행자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시행버전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤승렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상</t>
+  </si>
+  <si>
+    <t>항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행시 
+"환영합니다! 원하시는 번호를 입력해주세요.
+1. 게임 시작하기 2. 게임 기록 보기 3. 종료하기
+메시지가 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 진입 시
+&lt;게임을 시작합니다&gt;
+숫자를 입력하세요
+메시지가 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정답을 맞출경우
+정답입니다!
+메시지가 출력되며 다시 메뉴로 돌아가
+1. 게임 시작하기 2. 게임 기록 보기 3. 종료하기
+메시지가 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정답의 숫자를 자릿수까지 맞은경우 스트라이크
+숫자만 맞고 자릿수가 다른경우 볼을 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야구게임을 하지 않고 최초 실행후 게임 기록보기 메뉴로 진입하면
+저장된 기록이 없습니다
+메시지 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">야구게임을 하고 게임 기록 보기 메뉴로 진입하면
+&lt;게임 기록 보기&gt;
+1번째 게임 : 시도 횟수 - i회
+2번째 게임 : 시도 횟수 - j회
+….
+으로 기록을 출력하고 다시 메뉴로 돌아가
+1. 게임 시작하기 2. 게임 기록 보기 3. 종료하기
+메시지가 출력
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료하기를 선택하면 프로그램이 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효성검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 메뉴에서 1,2,3 이외의 숫자를 입력할 경우
+올바른 숫자를 입력해주세요!
+메시지를 출력하고 다시 메뉴 메시지를 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 메뉴에서 문자를 입력할 경우
+올바른 숫자를 입력해주세요!
+메시지를 출력하고 다시 메뉴 메시지를 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야구 게임에서 세자리 숫자 이외의 숫자를 입력할 경우
+올바르지 않은 입력값입니다
+메시지를 출력하고 다시 숫자를 입력하세요 메시지를 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야구 게임에서 처음이 0인 세자리 숫자를 입력할 경우
+올바르지 않은 입력값입니다
+메시지를 출력하고 다시 숫자를 입력하세요 메시지를 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야구 게임에서 처음이 문자를 입력할 경우
+올바르지 않은 입력값입니다
+메시지를 출력하고 다시 숫자를 입력하세요 메시지를 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야구게임에서 올바르지 않은 입력값은 기록에서 시도횟수에 포함되지 않는 것을 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 항목 클릭 시 해당 탭으로 이동합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,38 +309,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF3F3F3F"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -205,35 +339,326 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="출력" xfId="1" builtinId="21"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2001,61 +2426,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501D5E5C-16CE-49BE-8583-881DDAA42D83}">
-  <dimension ref="C3:I10"/>
+  <dimension ref="C3:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" customWidth="1"/>
+    <col min="5" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9">
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="3:9">
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="6" spans="3:9">
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="3:9">
-      <c r="C8" s="2" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="3:9">
-      <c r="C10" s="2" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C3:I4"/>
+  <mergeCells count="5">
+    <mergeCell ref="C3:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C6" location="요건정의!A1" display="요건정의" xr:uid="{0A1CF3C3-1817-4D48-A196-09C0754A8D66}"/>
-    <hyperlink ref="C8" location="진행예제!A1" display="진행예제" xr:uid="{318A25BA-5DD8-4662-9098-DB885454E16B}"/>
-    <hyperlink ref="C10" location="플로우!A1" display="플로우" xr:uid="{576ED415-65A8-4E4F-B53D-925C75CECF32}"/>
+    <hyperlink ref="C8" location="체크리스트!A1" display="체크리스트" xr:uid="{148DAF71-F549-4935-8D10-87C61DAF5812}"/>
+    <hyperlink ref="C7" location="플로우!A1" display="플로우" xr:uid="{576ED415-65A8-4E4F-B53D-925C75CECF32}"/>
+    <hyperlink ref="C6" location="진행예제!A1" display="진행예제" xr:uid="{318A25BA-5DD8-4662-9098-DB885454E16B}"/>
+    <hyperlink ref="C5" location="요건정의!A1" display="요건정의" xr:uid="{0A1CF3C3-1817-4D48-A196-09C0754A8D66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2065,106 +2518,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BF9951-1D80-4A50-A648-823D38AAD7FD}">
   <dimension ref="C2:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="40.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3">
+    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:3">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="3:3" ht="82.5">
+    <row r="9" spans="3:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
+    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
+    <row r="12" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
+    <row r="16" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>20</v>
       </c>
@@ -2179,18 +2630,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAB1B23-E76C-4D53-93D4-793F470D403E}">
   <dimension ref="C2:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M86" sqref="M86"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="3:3">
+    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>23</v>
       </c>
@@ -2210,10 +2659,287 @@
       <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE85542-0543-402B-8302-2D5BA2737303}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.75" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="B4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="8">
+        <v>45807</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="B5" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="8">
+        <v>45807</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="22"/>
+      <c r="C6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="12">
+        <v>45807</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B7" s="23"/>
+      <c r="C7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="16">
+        <v>45807</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="B8" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="8">
+        <v>45807</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="23"/>
+      <c r="C9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="16">
+        <v>45807</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="26">
+        <v>45807</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="28"/>
+    </row>
+    <row r="11" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="8">
+        <v>45807</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="12">
+        <v>45807</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="12">
+        <v>45807</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+      <c r="C14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="12">
+        <v>45807</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+      <c r="C15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="12">
+        <v>45807</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+      <c r="C16" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="16">
+        <v>45807</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B8:B9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{81CC7034-B652-42CB-AAE9-B54CC8DFC5F7}">
+      <formula1>"정상, 오류"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>